--- a/data capteur.xlsx
+++ b/data capteur.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maixent\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maixent\Desktop\Projet MOSH\2022_2023_4G_Kerleau_Cassagne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCBF4A5-1FCF-4DB2-9882-0B4AC032F557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95E8045-3E14-4714-A930-EA06AD0CD698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8132DBF5-2445-4F9A-82A8-CBFCD812A86E}"/>
   </bookViews>
@@ -149,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -163,7 +163,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -307,6 +316,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -374,7 +384,7 @@
             <c:numRef>
               <c:f>Feuil1!$I$4:$I$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5.11853144884283E-2</c:v>
@@ -501,7 +511,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -723,6 +733,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -790,7 +801,7 @@
             <c:numRef>
               <c:f>Feuil1!$I$14:$I$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>-5.0101344143375366E-2</c:v>
@@ -917,7 +928,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2495,481 +2506,482 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C2B807-EF37-44FA-9852-4E75C0698907}">
   <dimension ref="A2:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" style="1"/>
-    <col min="4" max="4" width="16.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="3" width="11.5546875" style="5"/>
+    <col min="4" max="4" width="16.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="1"/>
+    <col min="7" max="16384" width="11.5546875" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="5">
         <v>620</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="5">
         <f t="shared" ref="E3:E10" si="0">5*D3/1023</f>
         <v>3.0303030303030303</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="1">
-        <f>((5/E3)*(100)/1*(101)-(110))/1000</f>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G10" si="1">((5/E3)*(100)/1*(101)-(110))/1000</f>
         <v>16.555</v>
       </c>
-      <c r="I3" s="1">
-        <f>(G3-$G$3)/$G$3</f>
+      <c r="I3" s="5">
+        <f t="shared" ref="I3:I10" si="2">(G3-$G$3)/$G$3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
+      <c r="B4" s="5">
         <v>0.01</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="5">
         <v>2.5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <v>590</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="5">
         <f t="shared" si="0"/>
         <v>2.8836754643206257</v>
       </c>
       <c r="F4" s="1">
-        <f>$B$4/(2*C4)</f>
+        <f t="shared" ref="F4:F10" si="3">$B$4/(2*C4)</f>
         <v>2E-3</v>
       </c>
-      <c r="G4" s="1">
-        <f>((5/E4)*(100)/1*(101)-(110))/1000</f>
+      <c r="G4" s="5">
+        <f t="shared" si="1"/>
         <v>17.40237288135593</v>
       </c>
-      <c r="I4" s="1">
-        <f>(G4-$G$3)/$G$3</f>
+      <c r="I4" s="5">
+        <f t="shared" si="2"/>
         <v>5.11853144884283E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C5" s="1">
+      <c r="C5" s="5">
         <v>2.25</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <v>570</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="5">
         <f t="shared" si="0"/>
         <v>2.7859237536656893</v>
       </c>
       <c r="F5" s="1">
-        <f>$B$4/(2*C5)</f>
+        <f t="shared" si="3"/>
         <v>2.2222222222222222E-3</v>
       </c>
-      <c r="G5" s="1">
-        <f>((5/E5)*(100)/1*(101)-(110))/1000</f>
+      <c r="G5" s="5">
+        <f t="shared" si="1"/>
         <v>18.016842105263155</v>
       </c>
-      <c r="I5" s="1">
-        <f>(G5-$G$3)/$G$3</f>
+      <c r="I5" s="5">
+        <f t="shared" si="2"/>
         <v>8.8302150725651188E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C6" s="1">
+      <c r="C6" s="5">
         <v>2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="5">
         <v>555</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>2.7126099706744866</v>
       </c>
       <c r="F6" s="1">
-        <f>$B$4/(2*C6)</f>
+        <f t="shared" si="3"/>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G6" s="1">
-        <f>((5/E6)*(100)/1*(101)-(110))/1000</f>
+      <c r="G6" s="5">
+        <f t="shared" si="1"/>
         <v>18.506756756756758</v>
       </c>
-      <c r="I6" s="1">
-        <f>(G6-$G$3)/$G$3</f>
+      <c r="I6" s="5">
+        <f t="shared" si="2"/>
         <v>0.11789530394181566</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C7" s="1">
+      <c r="C7" s="5">
         <v>1.75</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="5">
         <v>560</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
         <v>2.7370478983382207</v>
       </c>
       <c r="F7" s="1">
-        <f>$B$4/(2*C7)</f>
+        <f t="shared" si="3"/>
         <v>2.8571428571428571E-3</v>
       </c>
-      <c r="G7" s="1">
-        <f>((5/E7)*(100)/1*(101)-(110))/1000</f>
+      <c r="G7" s="5">
+        <f t="shared" si="1"/>
         <v>18.340535714285718</v>
       </c>
-      <c r="I7" s="1">
-        <f>(G7-$G$3)/$G$3</f>
+      <c r="I7" s="5">
+        <f t="shared" si="2"/>
         <v>0.10785476981490293</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C8" s="1">
+      <c r="C8" s="5">
         <v>1.5</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="5">
         <v>545</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
         <v>2.6637341153470184</v>
       </c>
       <c r="F8" s="1">
-        <f>$B$4/(2*C8)</f>
+        <f t="shared" si="3"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="G8" s="1">
-        <f>((5/E8)*(100)/1*(101)-(110))/1000</f>
+      <c r="G8" s="5">
+        <f t="shared" si="1"/>
         <v>18.848348623853212</v>
       </c>
-      <c r="I8" s="1">
-        <f>(G8-$G$3)/$G$3</f>
+      <c r="I8" s="5">
+        <f t="shared" si="2"/>
         <v>0.13852906214758157</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C9" s="1">
+      <c r="C9" s="5">
         <v>1.25</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="5">
         <v>540</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
         <v>2.6392961876832843</v>
       </c>
       <c r="F9" s="1">
-        <f>$B$4/(2*C9)</f>
+        <f t="shared" si="3"/>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G9" s="1">
-        <f>((5/E9)*(100)/1*(101)-(110))/1000</f>
+      <c r="G9" s="5">
+        <f t="shared" si="1"/>
         <v>19.023888888888891</v>
       </c>
-      <c r="I9" s="1">
-        <f>(G9-$G$3)/$G$3</f>
+      <c r="I9" s="5">
+        <f t="shared" si="2"/>
         <v>0.14913252122554463</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C10" s="1">
+      <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="5">
         <v>520</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
         <v>2.541544477028348</v>
       </c>
       <c r="F10" s="1">
-        <f>$B$4/(2*C10)</f>
+        <f t="shared" si="3"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G10" s="1">
-        <f>((5/E10)*(100)/1*(101)-(110))/1000</f>
+      <c r="G10" s="5">
+        <f t="shared" si="1"/>
         <v>19.759807692307696</v>
       </c>
-      <c r="I10" s="1">
-        <f>(G10-$G$3)/$G$3</f>
+      <c r="I10" s="5">
+        <f t="shared" si="2"/>
         <v>0.19358548428315894</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D13" s="1">
+      <c r="D13" s="5">
         <v>190</v>
       </c>
-      <c r="E13" s="1">
-        <f>5*D13/1023</f>
+      <c r="E13" s="5">
+        <f t="shared" ref="E13:E20" si="4">5*D13/1023</f>
         <v>0.92864125122189634</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="5">
         <f>((5/E13)*(100)/1*(101)-(110))/1000</f>
         <v>54.270526315789475</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C14" s="1">
+      <c r="C14" s="5">
         <v>2.5</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="5">
         <v>200</v>
       </c>
-      <c r="E14" s="1">
-        <f>5*D14/1023</f>
+      <c r="E14" s="5">
+        <f t="shared" si="4"/>
         <v>0.97751710654936463</v>
       </c>
       <c r="F14" s="1">
         <f>-$B$4/(2*C14)</f>
         <v>-2E-3</v>
       </c>
-      <c r="G14" s="1">
-        <f t="shared" ref="G13:G20" si="1">((5/E14)*(100)/1*(101)-(110))/1000</f>
+      <c r="G14" s="5">
+        <f t="shared" ref="G14:G20" si="5">((5/E14)*(100)/1*(101)-(110))/1000</f>
         <v>51.551499999999997</v>
       </c>
-      <c r="I14" s="1">
-        <f>(G14-$G$13)/$G$13</f>
+      <c r="I14" s="5">
+        <f t="shared" ref="I14:I20" si="6">(G14-$G$13)/$G$13</f>
         <v>-5.0101344143375366E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C15" s="1">
+      <c r="C15" s="5">
         <v>2.25</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="5">
         <v>215</v>
       </c>
-      <c r="E15" s="1">
-        <f>5*D15/1023</f>
+      <c r="E15" s="5">
+        <f t="shared" si="4"/>
         <v>1.0508308895405669</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" ref="F15:F20" si="2">-$B$4/(2*C15)</f>
+        <f t="shared" ref="F15:F20" si="7">-$B$4/(2*C15)</f>
         <v>-2.2222222222222222E-3</v>
       </c>
-      <c r="G15" s="1">
-        <f t="shared" si="1"/>
+      <c r="G15" s="5">
+        <f t="shared" si="5"/>
         <v>47.947209302325589</v>
       </c>
-      <c r="I15" s="1">
-        <f>(G15-$G$13)/$G$13</f>
+      <c r="I15" s="5">
+        <f t="shared" si="6"/>
         <v>-0.11651475382180287</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C16" s="1">
+      <c r="C16" s="5">
         <v>2</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="5">
         <v>220</v>
       </c>
-      <c r="E16" s="1">
-        <f>5*D16/1023</f>
+      <c r="E16" s="5">
+        <f t="shared" si="4"/>
         <v>1.075268817204301</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-2.5000000000000001E-3</v>
       </c>
-      <c r="G16" s="1">
-        <f t="shared" si="1"/>
+      <c r="G16" s="5">
+        <f t="shared" si="5"/>
         <v>46.855000000000004</v>
       </c>
-      <c r="I16" s="1">
-        <f>(G16-$G$13)/$G$13</f>
+      <c r="I16" s="5">
+        <f t="shared" si="6"/>
         <v>-0.13664002948193257</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C17" s="1">
+      <c r="C17" s="5">
         <v>1.75</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="5">
         <v>230</v>
       </c>
-      <c r="E17" s="1">
-        <f>5*D17/1023</f>
+      <c r="E17" s="5">
+        <f t="shared" si="4"/>
         <v>1.1241446725317692</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-2.8571428571428571E-3</v>
       </c>
-      <c r="G17" s="1">
-        <f t="shared" si="1"/>
+      <c r="G17" s="5">
+        <f t="shared" si="5"/>
         <v>44.813043478260873</v>
       </c>
-      <c r="I17" s="1">
-        <f>(G17-$G$13)/$G$13</f>
+      <c r="I17" s="5">
+        <f t="shared" si="6"/>
         <v>-0.17426554484652271</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C18" s="1">
+      <c r="C18" s="5">
         <v>1.5</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="5">
         <v>240</v>
       </c>
-      <c r="E18" s="1">
-        <f>5*D18/1023</f>
+      <c r="E18" s="5">
+        <f t="shared" si="4"/>
         <v>1.1730205278592376</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-3.3333333333333335E-3</v>
       </c>
-      <c r="G18" s="1">
-        <f t="shared" si="1"/>
+      <c r="G18" s="5">
+        <f t="shared" si="5"/>
         <v>42.941249999999997</v>
       </c>
-      <c r="I18" s="1">
-        <f>(G18-$G$13)/$G$13</f>
+      <c r="I18" s="5">
+        <f t="shared" si="6"/>
         <v>-0.20875560059739715</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C19" s="1">
+      <c r="C19" s="5">
         <v>1.25</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="5">
         <v>245</v>
       </c>
-      <c r="E19" s="1">
-        <f>5*D19/1023</f>
+      <c r="E19" s="5">
+        <f t="shared" si="4"/>
         <v>1.1974584555229717</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="G19" s="1">
-        <f t="shared" si="1"/>
+      <c r="G19" s="5">
+        <f t="shared" si="5"/>
         <v>42.062653061224488</v>
       </c>
-      <c r="I19" s="1">
-        <f>(G19-$G$13)/$G$13</f>
+      <c r="I19" s="5">
+        <f t="shared" si="6"/>
         <v>-0.22494481043964423</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C20" s="1">
+      <c r="C20" s="5">
         <v>1</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="5">
         <v>260</v>
       </c>
-      <c r="E20" s="1">
-        <f>5*D20/1023</f>
+      <c r="E20" s="5">
+        <f t="shared" si="4"/>
         <v>1.270772238514174</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="G20" s="1">
-        <f t="shared" si="1"/>
+      <c r="G20" s="5">
+        <f t="shared" si="5"/>
         <v>39.629615384615391</v>
       </c>
-      <c r="I20" s="1">
-        <f>(G20-$G$13)/$G$13</f>
+      <c r="I20" s="5">
+        <f t="shared" si="6"/>
         <v>-0.2697764684643284</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3" t="s">
+      <c r="H25" s="6"/>
+      <c r="I25" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6">
         <v>620</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="6">
         <f>5*D26/1023</f>
         <v>3.0303030303030303</v>
       </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="3">
+      <c r="G26" s="6">
         <f>((5/E26)*(100)/1*(101)-(110))/1000</f>
         <v>16.555</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3">
+      <c r="H26" s="6"/>
+      <c r="I26" s="6">
         <f>(G26-$G$26)/$G$26</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="6">
         <f>$B$4/(2*F27)</f>
         <v>3.5567176136673599</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="6">
         <v>590</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="6">
         <f>5*D27/1023</f>
         <v>2.8836754643206257</v>
       </c>
@@ -2977,28 +2989,28 @@
         <f>(I27+0.0057)/40.465</f>
         <v>1.4057905471006624E-3</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="6">
         <f>((5/E27)*(100)/1*(101)-(110))/1000</f>
         <v>17.40237288135593</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3">
+      <c r="H27" s="6"/>
+      <c r="I27" s="6">
         <f>(G27-$G$26)/$G$26</f>
         <v>5.11853144884283E-2</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="6">
         <f>$B$4/(2*F28)</f>
         <v>2.1523443712526658</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="6">
         <v>570</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="6">
         <f>5*D28/1023</f>
         <v>2.7859237536656893</v>
       </c>
@@ -3006,69 +3018,69 @@
         <f>(I28+0.0057)/40.465</f>
         <v>2.3230483312900326E-3</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="6">
         <f>((5/E28)*(100)/1*(101)-(110))/1000</f>
         <v>18.016842105263155</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3">
+      <c r="H28" s="6"/>
+      <c r="I28" s="6">
         <f>(G28-$G$26)/$G$26</f>
         <v>8.8302150725651188E-2</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="8">
         <v>11.5</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="6">
         <f>PI()*C27^2*$C$31</f>
         <v>457.03186870160755</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="6">
         <f>D31/10</f>
         <v>45.703186870160756</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="3">
+      <c r="C32" s="8"/>
+      <c r="D32" s="6">
         <f>PI()*C28^2*11.5</f>
         <v>167.36753923051037</v>
       </c>
-      <c r="E32" s="3">
-        <f t="shared" ref="E32:E33" si="3">D32/10</f>
+      <c r="E32" s="6">
+        <f t="shared" ref="E32:E33" si="8">D32/10</f>
         <v>16.736753923051037</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="3">
+      <c r="C33" s="8"/>
+      <c r="D33" s="6">
         <f>(D31+D32)/2</f>
         <v>312.19970396605896</v>
       </c>
-      <c r="E33" s="3">
-        <f t="shared" si="3"/>
+      <c r="E33" s="6">
+        <f t="shared" si="8"/>
         <v>31.219970396605895</v>
       </c>
     </row>

--- a/data capteur.xlsx
+++ b/data capteur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maixent\Desktop\Projet MOSH\2022_2023_4G_Kerleau_Cassagne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95E8045-3E14-4714-A930-EA06AD0CD698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62EE8B6-F1AD-44F1-A8B7-BFB650621C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8132DBF5-2445-4F9A-82A8-CBFCD812A86E}"/>
   </bookViews>
@@ -2506,7 +2506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C2B807-EF37-44FA-9852-4E75C0698907}">
   <dimension ref="A2:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
